--- a/Fylker.xlsx
+++ b/Fylker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tronder.sharepoint.com/sites/felles-reg/Documents/Statistikk/PowerBI/GitHub/mal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{F8BD9F77-780C-4D90-9BD3-284D667D7D15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5C444DF8-16E9-42D5-A1B0-F1BFAD5F18D5}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{F8BD9F77-780C-4D90-9BD3-284D667D7D15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8F759169-FF77-49CD-B7CF-68DE5F6B558A}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="2460" windowWidth="21600" windowHeight="12675" xr2:uid="{D2EFAD6C-8952-4A8F-8394-39280D8D9D09}"/>
+    <workbookView xWindow="-23415" yWindow="585" windowWidth="21600" windowHeight="12675" xr2:uid="{D2EFAD6C-8952-4A8F-8394-39280D8D9D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>01</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>Nytt fylke</t>
+  </si>
+  <si>
+    <t>01-99</t>
+  </si>
+  <si>
+    <t>Norge</t>
   </si>
 </sst>
 </file>
@@ -535,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8C6B70-44F5-4CC2-8413-49A9181BA0D0}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,6 +835,20 @@
         <v>45</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -836,6 +856,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="11" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="ca392f09ec4657bc601066d7bc537d21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="345553e69f630f0ba71e029dc9be3dcc" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1036,32 +1074,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{998FDD01-C75C-4D6B-ACDE-9721F279AF04}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFB53AFF-2738-4852-81F8-BF2B359A58E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE60EF02-366D-46B3-97B1-8BA4084C1CD4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE60EF02-366D-46B3-97B1-8BA4084C1CD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFB53AFF-2738-4852-81F8-BF2B359A58E8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{998FDD01-C75C-4D6B-ACDE-9721F279AF04}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Fylker.xlsx
+++ b/Fylker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tronder.sharepoint.com/sites/felles-reg/Documents/Statistikk/PowerBI/GitHub/mal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{F8BD9F77-780C-4D90-9BD3-284D667D7D15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8F759169-FF77-49CD-B7CF-68DE5F6B558A}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{F8BD9F77-780C-4D90-9BD3-284D667D7D15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00ECCF7B-36DF-4B67-B70E-3455F8CC96F3}"/>
   <bookViews>
-    <workbookView xWindow="-23415" yWindow="585" windowWidth="21600" windowHeight="12675" xr2:uid="{D2EFAD6C-8952-4A8F-8394-39280D8D9D09}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D2EFAD6C-8952-4A8F-8394-39280D8D9D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
   <si>
     <t>01</t>
   </si>
@@ -541,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8C6B70-44F5-4CC2-8413-49A9181BA0D0}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,39 +570,39 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+      <c r="A2" s="1">
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B4" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
       </c>
       <c r="C4" s="1">
         <v>30</v>
@@ -612,11 +612,11 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
+      <c r="A5" s="1">
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1">
         <v>34</v>
@@ -626,254 +626,379 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
+      <c r="A6" s="1">
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
+      <c r="A7" s="1">
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
+      <c r="A8" s="1">
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
+      <c r="A9" s="1">
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
+      <c r="A10" s="1">
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="1">
-        <v>46</v>
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="1">
-        <v>18</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="C19" s="1">
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
+      </c>
+      <c r="C20" s="1">
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="1">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="1">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="1">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="1">
         <v>50</v>
       </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="1">
         <v>50</v>
       </c>
-      <c r="D21" t="s">
-        <v>51</v>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="1">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="1">
+        <v>54</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="1">
+        <v>54</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D31">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="11" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="ca392f09ec4657bc601066d7bc537d21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="345553e69f630f0ba71e029dc9be3dcc" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1074,25 +1199,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFB53AFF-2738-4852-81F8-BF2B359A58E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE60EF02-366D-46B3-97B1-8BA4084C1CD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{998FDD01-C75C-4D6B-ACDE-9721F279AF04}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1109,4 +1234,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE60EF02-366D-46B3-97B1-8BA4084C1CD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFB53AFF-2738-4852-81F8-BF2B359A58E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Fylker.xlsx
+++ b/Fylker.xlsx
@@ -544,7 +544,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,6 +999,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="11" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="ca392f09ec4657bc601066d7bc537d21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="345553e69f630f0ba71e029dc9be3dcc" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1199,25 +1217,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFB53AFF-2738-4852-81F8-BF2B359A58E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE60EF02-366D-46B3-97B1-8BA4084C1CD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{998FDD01-C75C-4D6B-ACDE-9721F279AF04}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1234,22 +1252,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE60EF02-366D-46B3-97B1-8BA4084C1CD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFB53AFF-2738-4852-81F8-BF2B359A58E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Fylker.xlsx
+++ b/Fylker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tronder.sharepoint.com/sites/felles-reg/Documents/Statistikk/PowerBI/GitHub/mal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{F8BD9F77-780C-4D90-9BD3-284D667D7D15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00ECCF7B-36DF-4B67-B70E-3455F8CC96F3}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{F8BD9F77-780C-4D90-9BD3-284D667D7D15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4BBCDCF3-C963-4E5E-8489-3227D0B2300A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D2EFAD6C-8952-4A8F-8394-39280D8D9D09}"/>
   </bookViews>
@@ -224,9 +224,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8C6B70-44F5-4CC2-8413-49A9181BA0D0}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,6 +989,10 @@
       <c r="D31" t="s">
         <v>18</v>
       </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="D34" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D31">

--- a/Fylker.xlsx
+++ b/Fylker.xlsx
@@ -1022,8 +1022,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="11" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="ca392f09ec4657bc601066d7bc537d21">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="345553e69f630f0ba71e029dc9be3dcc" ns1:_="" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="12" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="e4a524b860cf13a8c93835716f8e4da0">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="810e635cb89f261f8aa95246a976651c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
     <xsd:element name="properties">
@@ -1044,6 +1044,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1120,6 +1121,11 @@
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1241,20 +1247,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{998FDD01-C75C-4D6B-ACDE-9721F279AF04}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39CBB6A8-CAF7-4D3D-9D46-FAF0C9F3525C}"/>
 </file>
--- a/Fylker.xlsx
+++ b/Fylker.xlsx
@@ -1008,6 +1008,10 @@
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
@@ -1022,10 +1026,11 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="12" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="e4a524b860cf13a8c93835716f8e4da0">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="810e635cb89f261f8aa95246a976651c" ns1:_="" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="15" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="5d2df7d88173eed2472aac31f58c6f9b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="020ddd7b595e894bbf41ffe05b9a61ec" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+    <xsd:import namespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -1045,6 +1050,8 @@
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1127,6 +1134,28 @@
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildemerkelapper" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="17f1e631-7134-4ce3-8a3d-482fd88a4c57" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{cfd1b471-962e-4074-a3f5-f81efd63bd54}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="a65edee0-4267-4101-9877-75c307db3846">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -1247,5 +1276,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39CBB6A8-CAF7-4D3D-9D46-FAF0C9F3525C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE3DB83F-5814-457F-A7DB-6F04E7BAE929}"/>
 </file>
--- a/Fylker.xlsx
+++ b/Fylker.xlsx
@@ -1026,8 +1026,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="15" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="5d2df7d88173eed2472aac31f58c6f9b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="020ddd7b595e894bbf41ffe05b9a61ec" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="16" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="a0fb7c36fac9088a608ed981e0aa11fd">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b99157ba4c61b01c0cdc0040d5e0220" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
     <xsd:import namespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
@@ -1052,6 +1052,7 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1141,6 +1142,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" elementFormDefault="qualified">
@@ -1276,5 +1282,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE3DB83F-5814-457F-A7DB-6F04E7BAE929}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D142AAC-94DE-4E52-A174-3F2D6D309122}"/>
 </file>
--- a/Fylker.xlsx
+++ b/Fylker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tronder.sharepoint.com/sites/felles-reg/Documents/Statistikk/PowerBI/GitHub/mal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tronder.sharepoint.com/sites/seksjonregional/Delte dokumenter/Statistikk/PowerBI/GitHub/mal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{F8BD9F77-780C-4D90-9BD3-284D667D7D15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4BBCDCF3-C963-4E5E-8489-3227D0B2300A}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{F8BD9F77-780C-4D90-9BD3-284D667D7D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6F16765-A614-47E0-9E4A-735A44DC5918}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D2EFAD6C-8952-4A8F-8394-39280D8D9D09}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D2EFAD6C-8952-4A8F-8394-39280D8D9D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="58">
   <si>
     <t>01</t>
   </si>
@@ -189,6 +189,24 @@
   </si>
   <si>
     <t>Norge</t>
+  </si>
+  <si>
+    <t>Nytt fylkesnummer 2024</t>
+  </si>
+  <si>
+    <t>Nytt fylke 2024</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
   </si>
 </sst>
 </file>
@@ -246,9 +264,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -286,7 +304,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -392,7 +410,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -534,7 +552,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -542,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8C6B70-44F5-4CC2-8413-49A9181BA0D0}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,9 +572,10 @@
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -569,8 +588,14 @@
       <c r="D1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>15</v>
       </c>
@@ -583,8 +608,14 @@
       <c r="D2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>18</v>
       </c>
@@ -597,8 +628,14 @@
       <c r="D3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>30</v>
       </c>
@@ -611,8 +648,14 @@
       <c r="D4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>34</v>
       </c>
@@ -625,8 +668,14 @@
       <c r="D5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>38</v>
       </c>
@@ -639,8 +688,14 @@
       <c r="D6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42</v>
       </c>
@@ -653,8 +708,14 @@
       <c r="D7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>46</v>
       </c>
@@ -667,8 +728,14 @@
       <c r="D8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>50</v>
       </c>
@@ -681,8 +748,14 @@
       <c r="D9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>54</v>
       </c>
@@ -695,8 +768,14 @@
       <c r="D10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -709,8 +788,14 @@
       <c r="D11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -723,8 +808,14 @@
       <c r="D12" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -737,8 +828,14 @@
       <c r="D13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="1">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
@@ -751,8 +848,14 @@
       <c r="D14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -765,8 +868,14 @@
       <c r="D15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="1">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -779,8 +888,14 @@
       <c r="D16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -793,8 +908,14 @@
       <c r="D17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -807,8 +928,14 @@
       <c r="D18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -821,8 +948,14 @@
       <c r="D19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -835,8 +968,14 @@
       <c r="D20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1">
+        <v>42</v>
+      </c>
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -849,8 +988,14 @@
       <c r="D21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1">
+        <v>42</v>
+      </c>
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -863,8 +1008,14 @@
       <c r="D22" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -877,8 +1028,14 @@
       <c r="D23" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,8 +1048,14 @@
       <c r="D24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="1">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -905,8 +1068,14 @@
       <c r="D25" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
@@ -919,8 +1088,14 @@
       <c r="D26" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1">
+        <v>15</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
@@ -933,8 +1108,14 @@
       <c r="D27" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -947,8 +1128,14 @@
       <c r="D28" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="1">
+        <v>50</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
@@ -961,8 +1148,14 @@
       <c r="D29" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="1">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
@@ -975,8 +1168,14 @@
       <c r="D30" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
@@ -988,6 +1187,12 @@
       </c>
       <c r="D31" t="s">
         <v>18</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
@@ -1004,19 +1209,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1025,11 +1217,21 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e0dd9af2-4fb6-4c9d-b1e7-5953e7056a03">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="16" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="a0fb7c36fac9088a608ed981e0aa11fd">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b99157ba4c61b01c0cdc0040d5e0220" ns1:_="" ns2:_="" ns3:_="">
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
-    <xsd:import namespace="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010084524CC458AB204A9AE668594E7CAFE2" ma:contentTypeVersion="14" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="ca53d91e785442f301400f43f2317227">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e0dd9af2-4fb6-4c9d-b1e7-5953e7056a03" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="90962d3e54d2b9018c88f57cdf59aac8" ns2:_="" ns3:_="">
+    <xsd:import namespace="e0dd9af2-4fb6-4c9d-b1e7-5953e7056a03"/>
     <xsd:import namespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -1037,22 +1239,19 @@
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns1:PublishingStartDate" minOccurs="0"/>
-                <xsd:element ref="ns1:PublishingExpirationDate" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1060,49 +1259,35 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e0dd9af2-4fb6-4c9d-b1e7-5953e7056a03" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="PublishingStartDate" ma:index="8" nillable="true" ma:displayName="Planlagt startdato" ma:description="Planlagt startdato er en områdekolonne som opprettes av publiseringsfunksjonen. Den brukes til å angi dato og klokkeslett for når denne siden vises for første gang for besøkende på området." ma:hidden="true" ma:internalName="PublishingStartDate">
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="PublishingExpirationDate" ma:index="9" nillable="true" ma:displayName="Planlagt utløpsdato" ma:description="Planlagt sluttdato er en områdekolonne som opprettes av publiseringsfunksjonen. Den brukes til å angi dato og klokkeslett for når denne siden ikke lenger vises for besøkende på området." ma:hidden="true" ma:internalName="PublishingExpirationDate">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="712f17e0-2077-4e3f-8ea2-c75d02de46ee" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildemerkelapper" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="17f1e631-7134-4ce3-8a3d-482fd88a4c57" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
     </xsd:element>
     <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
@@ -1114,45 +1299,38 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="17" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="18" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="18" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="19" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceLocation" ma:index="19" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="20" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="21" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildemerkelapper" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="17f1e631-7134-4ce3-8a3d-482fd88a4c57" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{cfd1b471-962e-4074-a3f5-f81efd63bd54}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="a65edee0-4267-4101-9877-75c307db3846">
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{7dc882f1-b76e-4208-9458-077f72b15e88}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="3380ad97-581c-42a5-b3e1-d37340956bae">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:MultiChoiceLookup">
@@ -1264,16 +1442,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFB53AFF-2738-4852-81F8-BF2B359A58E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE60EF02-366D-46B3-97B1-8BA4084C1CD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1281,6 +1449,33 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFB53AFF-2738-4852-81F8-BF2B359A58E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
+    <ds:schemaRef ds:uri="e0dd9af2-4fb6-4c9d-b1e7-5953e7056a03"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D142AAC-94DE-4E52-A174-3F2D6D309122}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C76E0FFE-0473-442C-B79D-E250FF05747A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e0dd9af2-4fb6-4c9d-b1e7-5953e7056a03"/>
+    <ds:schemaRef ds:uri="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>